--- a/chapters/ch05-ResourceIntensity/datasets/ExtractedMaterialCurveFit.xlsx
+++ b/chapters/ch05-ResourceIntensity/datasets/ExtractedMaterialCurveFit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch05-ResourceIntensity/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{04573FA0-AB87-4C46-8ADC-73AFD5D41507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F1EC06-289D-CC46-B828-425E323E9CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtractedMaterialCurveFit - all" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Year</t>
   </si>
@@ -66,11 +66,14 @@
   <si>
     <t>values</t>
   </si>
+  <si>
+    <t>r2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4086,7 +4089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6357,11 +6360,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G57"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6481,6 +6484,12 @@
         <f t="shared" si="1"/>
         <v>16.096433328061455</v>
       </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.98130059800000002</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
